--- a/biology/Médecine/Fiona_Ross/Fiona_Ross.xlsx
+++ b/biology/Médecine/Fiona_Ross/Fiona_Ross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fiona Mary Ross, CBE née le 23 octobre 1951 à Londres, en Angleterre, est une universitaire britannique, professeur de soins infirmiers et gérontologie[1], En 2015, Ross a été nommée Commandeur de l'Ordre de l'Empire britannique (CBE) «pour services rendus aux soins infirmiers»[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fiona Mary Ross, CBE née le 23 octobre 1951 à Londres, en Angleterre, est une universitaire britannique, professeur de soins infirmiers et gérontologie, En 2015, Ross a été nommée Commandeur de l'Ordre de l'Empire britannique (CBE) «pour services rendus aux soins infirmiers»,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a fait ses études à la James Allen's Girls' School à Dulwich, Londres. Elle obtient une licence (1973) en sciences sociales et les sciences infirmières à l'Université d'Édimbourg puis un doctorat en sciences infirmières au King's College de Londres en 1987[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a fait ses études à la James Allen's Girls' School à Dulwich, Londres. Elle obtient une licence (1973) en sciences sociales et les sciences infirmières à l'Université d'Édimbourg puis un doctorat en sciences infirmières au King's College de Londres en 1987,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ross fut directrice de la National Nursing Research Unit au King's College de Londres (2002-2005)[6] puis professeur de recherche en santé à l'Université de Kingston[7] et à St George's, Université de Londres[8] et directrice de recherche à la Leadership Foundation for Higher Education (en)[9]. Elle est membre du Queen's Nursing Institute (en)[10] et membre de l'Académie européenne des sciences infirmières[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ross fut directrice de la National Nursing Research Unit au King's College de Londres (2002-2005) puis professeur de recherche en santé à l'Université de Kingston et à St George's, Université de Londres et directrice de recherche à la Leadership Foundation for Higher Education (en). Elle est membre du Queen's Nursing Institute (en) et membre de l'Académie européenne des sciences infirmières.
 </t>
         </is>
       </c>
